--- a/output.xlsx
+++ b/output.xlsx
@@ -46,10 +46,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7936" uniqueCount="783">
   <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Model No.</t>
+    <t>Item Nos.</t>
+  </si>
+  <si>
+    <t>Model Nos.</t>
   </si>
   <si>
     <t>P/N</t>
@@ -2760,7 +2760,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="99.7109375" customWidth="1"/>
@@ -7032,7 +7032,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="122.7109375" customWidth="1"/>
@@ -10089,7 +10089,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="66.7109375" customWidth="1"/>
@@ -13108,7 +13108,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="66.7109375" customWidth="1"/>
@@ -16127,7 +16127,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="66.7109375" customWidth="1"/>
@@ -19190,7 +19190,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="66.7109375" customWidth="1"/>
@@ -22209,7 +22209,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="73.7109375" customWidth="1"/>
@@ -24524,7 +24524,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="73.7109375" customWidth="1"/>
@@ -26839,7 +26839,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="73.7109375" customWidth="1"/>
@@ -29154,7 +29154,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="73.7109375" customWidth="1"/>
@@ -31513,7 +31513,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="73.7109375" customWidth="1"/>
@@ -33828,7 +33828,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="99.7109375" customWidth="1"/>
@@ -38191,7 +38191,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="73.7109375" customWidth="1"/>
@@ -40506,7 +40506,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="73.7109375" customWidth="1"/>
@@ -42821,7 +42821,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="73.7109375" customWidth="1"/>
@@ -45136,7 +45136,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="73.7109375" customWidth="1"/>
@@ -47451,7 +47451,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="122.7109375" customWidth="1"/>
@@ -51074,7 +51074,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="122.7109375" customWidth="1"/>
@@ -54697,7 +54697,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="122.7109375" customWidth="1"/>
@@ -58320,7 +58320,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
@@ -58473,7 +58473,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="34.7109375" customWidth="1"/>
@@ -58626,7 +58626,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="34.7109375" customWidth="1"/>
@@ -58779,7 +58779,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="91.7109375" customWidth="1"/>
@@ -62611,7 +62611,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="34.7109375" customWidth="1"/>
@@ -62764,7 +62764,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="34.7109375" customWidth="1"/>
@@ -62931,7 +62931,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="91.7109375" customWidth="1"/>
@@ -66763,7 +66763,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="122.7109375" customWidth="1"/>
@@ -69160,7 +69160,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="71.7109375" customWidth="1"/>
@@ -70900,7 +70900,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="71.7109375" customWidth="1"/>
@@ -72508,7 +72508,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="71.7109375" customWidth="1"/>
@@ -74116,7 +74116,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="122.7109375" customWidth="1"/>
